--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>12.39254026850644</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.345569271255818</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.51715980776106</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>38.85791678996517</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.004984670427535</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,131 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.987604228685142</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>31.43017226603311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>11.72500585479649</v>
+      </c>
+      <c r="D3">
+        <v>3.304012705962809</v>
+      </c>
+      <c r="E3">
+        <v>10.97044231207415</v>
+      </c>
+      <c r="F3">
+        <v>36.37393659926132</v>
+      </c>
+      <c r="G3">
+        <v>2.017543224348576</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5.848179531004593</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="O3">
+        <v>29.51642527871621</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>11.31009524920676</v>
+      </c>
+      <c r="D4">
+        <v>3.281939918277918</v>
+      </c>
+      <c r="E4">
+        <v>10.63423366025519</v>
+      </c>
+      <c r="F4">
+        <v>34.80649681364381</v>
+      </c>
+      <c r="G4">
+        <v>2.02540043850417</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5.766469133888508</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="O4">
+        <v>28.31455473916305</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>11.13986859026833</v>
+      </c>
+      <c r="D5">
+        <v>3.273756224449116</v>
+      </c>
+      <c r="E5">
+        <v>10.49719399826121</v>
+      </c>
+      <c r="F5">
+        <v>34.15734351253604</v>
+      </c>
+      <c r="G5">
+        <v>2.028643153993502</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5.734132989306031</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="O5">
+        <v>27.81827633354643</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>11.11153769858007</v>
+      </c>
+      <c r="D6">
+        <v>3.272444784972308</v>
+      </c>
+      <c r="E6">
+        <v>10.4744402554719</v>
+      </c>
+      <c r="F6">
+        <v>34.04893311410778</v>
+      </c>
+      <c r="G6">
+        <v>2.029184182650719</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5.728821169637539</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="O6">
+        <v>27.73548631938259</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11.30780396540422</v>
+      </c>
+      <c r="D7">
+        <v>3.281826335587665</v>
+      </c>
+      <c r="E7">
+        <v>10.63238547005689</v>
+      </c>
+      <c r="F7">
+        <v>34.79778383798373</v>
+      </c>
+      <c r="G7">
+        <v>2.025444000448434</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>5.766029167009705</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="O7">
+        <v>28.30788768510688</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>12.1634787582534</v>
+      </c>
+      <c r="D8">
+        <v>3.330491924155923</v>
+      </c>
+      <c r="E8">
+        <v>11.32880913725872</v>
+      </c>
+      <c r="F8">
+        <v>38.01029237581606</v>
+      </c>
+      <c r="G8">
+        <v>2.009287091715467</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5.938709830151797</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O8">
+        <v>30.7759799515433</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>13.79867873743789</v>
+      </c>
+      <c r="D9">
+        <v>3.455923754367423</v>
+      </c>
+      <c r="E9">
+        <v>12.68789123979273</v>
+      </c>
+      <c r="F9">
+        <v>44.15536350745142</v>
+      </c>
+      <c r="G9">
+        <v>1.978556090650611</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6.309303248579844</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>28.34722074380647</v>
+      </c>
+      <c r="O9">
+        <v>35.56127734704344</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>14.97411268640212</v>
+      </c>
+      <c r="D10">
+        <v>3.570531642957322</v>
+      </c>
+      <c r="E10">
+        <v>13.68221681696224</v>
+      </c>
+      <c r="F10">
+        <v>48.57609940499492</v>
+      </c>
+      <c r="G10">
+        <v>1.956225568301588</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>6.603048634752823</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="O10">
+        <v>39.16638368586664</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>15.50439243461691</v>
+      </c>
+      <c r="D11">
+        <v>3.628636767488617</v>
+      </c>
+      <c r="E11">
+        <v>14.13460427860248</v>
+      </c>
+      <c r="F11">
+        <v>50.53915316072883</v>
+      </c>
+      <c r="G11">
+        <v>1.946030925056278</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6.741989872040917</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="O11">
+        <v>40.76633733074868</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>15.70473741812526</v>
+      </c>
+      <c r="D12">
+        <v>3.651607021092682</v>
+      </c>
+      <c r="E12">
+        <v>14.30607310686334</v>
+      </c>
+      <c r="F12">
+        <v>51.27649700280075</v>
+      </c>
+      <c r="G12">
+        <v>1.942156237962709</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6.7954417590607</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="O12">
+        <v>41.3671990063481</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>15.66160645118151</v>
+      </c>
+      <c r="D13">
+        <v>3.646615017953176</v>
+      </c>
+      <c r="E13">
+        <v>14.26913404251756</v>
+      </c>
+      <c r="F13">
+        <v>51.11794854975854</v>
+      </c>
+      <c r="G13">
+        <v>1.942991512168512</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>6.783891276839473</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>31.67947945617568</v>
+      </c>
+      <c r="O13">
+        <v>41.23800164724486</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>15.52088290241588</v>
+      </c>
+      <c r="D14">
+        <v>3.630506471623498</v>
+      </c>
+      <c r="E14">
+        <v>14.14870683351902</v>
+      </c>
+      <c r="F14">
+        <v>50.59992984459196</v>
+      </c>
+      <c r="G14">
+        <v>1.945712493662569</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6.746370102840754</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="O14">
+        <v>40.81586603598451</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>15.43463214032145</v>
+      </c>
+      <c r="D15">
+        <v>3.620769013941091</v>
+      </c>
+      <c r="E15">
+        <v>14.07496802564009</v>
+      </c>
+      <c r="F15">
+        <v>50.28187356329601</v>
+      </c>
+      <c r="G15">
+        <v>1.947377032036155</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>6.72349895237865</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>31.28998244549471</v>
+      </c>
+      <c r="O15">
+        <v>40.55666886465978</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>14.93938203633859</v>
+      </c>
+      <c r="D16">
+        <v>3.566863337161899</v>
+      </c>
+      <c r="E16">
+        <v>13.65266492937935</v>
+      </c>
+      <c r="F16">
+        <v>48.44691444306189</v>
+      </c>
+      <c r="G16">
+        <v>1.956890347912755</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>6.594081279976558</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>30.424642833461</v>
+      </c>
+      <c r="O16">
+        <v>39.06107800152531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>14.63453158926607</v>
+      </c>
+      <c r="D17">
+        <v>3.535394668693377</v>
+      </c>
+      <c r="E17">
+        <v>13.39369933547149</v>
+      </c>
+      <c r="F17">
+        <v>47.30950414085298</v>
+      </c>
+      <c r="G17">
+        <v>1.962711223866237</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6.516095195283121</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="O17">
+        <v>38.13381408102214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>14.45875805168959</v>
+      </c>
+      <c r="D18">
+        <v>3.517849141988553</v>
+      </c>
+      <c r="E18">
+        <v>13.24474256750822</v>
+      </c>
+      <c r="F18">
+        <v>46.65071808046169</v>
+      </c>
+      <c r="G18">
+        <v>1.966056430874285</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6.471734464572908</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>29.56404287680425</v>
+      </c>
+      <c r="O18">
+        <v>37.59665511191003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>14.3991657443303</v>
+      </c>
+      <c r="D19">
+        <v>3.512000726612767</v>
+      </c>
+      <c r="E19">
+        <v>13.19430366767184</v>
+      </c>
+      <c r="F19">
+        <v>46.42685470523863</v>
+      </c>
+      <c r="G19">
+        <v>1.967188827588359</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6.456797746434153</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="O19">
+        <v>37.41410569764928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>14.66702704926742</v>
+      </c>
+      <c r="D20">
+        <v>3.538686452178577</v>
+      </c>
+      <c r="E20">
+        <v>13.42126646066819</v>
+      </c>
+      <c r="F20">
+        <v>47.43105147332252</v>
+      </c>
+      <c r="G20">
+        <v>1.962091932354466</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>6.524345268256446</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="O20">
+        <v>38.23291346768315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>15.56222755873744</v>
+      </c>
+      <c r="D21">
+        <v>3.635210734643108</v>
+      </c>
+      <c r="E21">
+        <v>14.1840733749125</v>
+      </c>
+      <c r="F21">
+        <v>50.75223995908951</v>
+      </c>
+      <c r="G21">
+        <v>1.944913739950471</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>6.75736755133499</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="O21">
+        <v>40.93998657555957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>16.14474327494896</v>
+      </c>
+      <c r="D22">
+        <v>3.703997103042273</v>
+      </c>
+      <c r="E22">
+        <v>14.68365970767416</v>
+      </c>
+      <c r="F22">
+        <v>52.8882850491534</v>
+      </c>
+      <c r="G22">
+        <v>1.933598690936438</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>6.914595059633695</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="O22">
+        <v>42.68050702900398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>15.83399977487319</v>
+      </c>
+      <c r="D23">
+        <v>3.666721649538515</v>
+      </c>
+      <c r="E23">
+        <v>14.41685815725258</v>
+      </c>
+      <c r="F23">
+        <v>51.75105508127936</v>
+      </c>
+      <c r="G23">
+        <v>1.939649195053647</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>6.830198273193585</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="O23">
+        <v>41.75389364087389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>14.6523374556375</v>
+      </c>
+      <c r="D24">
+        <v>3.537196543458311</v>
+      </c>
+      <c r="E24">
+        <v>13.40880360425599</v>
+      </c>
+      <c r="F24">
+        <v>47.37611516819656</v>
+      </c>
+      <c r="G24">
+        <v>1.962371917418601</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>6.520613937518381</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="O24">
+        <v>38.18812334341493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>13.36107660358973</v>
+      </c>
+      <c r="D25">
+        <v>3.41837871671932</v>
+      </c>
+      <c r="E25">
+        <v>12.32111188193891</v>
+      </c>
+      <c r="F25">
+        <v>42.48007263441965</v>
+      </c>
+      <c r="G25">
+        <v>1.986799265181135</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>6.205452475940572</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="O25">
+        <v>34.19401202137524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.39254026850644</v>
+        <v>13.45843057308089</v>
       </c>
       <c r="D2">
-        <v>3.345569271255818</v>
+        <v>5.67360955427247</v>
       </c>
       <c r="E2">
-        <v>11.51715980776106</v>
+        <v>13.82782050721507</v>
       </c>
       <c r="F2">
-        <v>38.85791678996517</v>
+        <v>34.00327528687026</v>
       </c>
       <c r="G2">
-        <v>2.004984670427535</v>
+        <v>3.640837487773293</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.987604228685142</v>
+        <v>9.225315554510207</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
-        <v>31.43017226603311</v>
+        <v>29.72179095132885</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.72500585479649</v>
+        <v>13.3661654808872</v>
       </c>
       <c r="D3">
-        <v>3.304012705962809</v>
+        <v>5.686663600237641</v>
       </c>
       <c r="E3">
-        <v>10.97044231207415</v>
+        <v>13.77440445474033</v>
       </c>
       <c r="F3">
-        <v>36.37393659926132</v>
+        <v>33.4555667402718</v>
       </c>
       <c r="G3">
-        <v>2.017543224348576</v>
+        <v>3.645260097764718</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.848179531004593</v>
+        <v>9.233124427980423</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
-        <v>29.51642527871621</v>
+        <v>29.35654874916323</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.31009524920676</v>
+        <v>13.31305664959141</v>
       </c>
       <c r="D4">
-        <v>3.281939918277918</v>
+        <v>5.695707863816937</v>
       </c>
       <c r="E4">
-        <v>10.63423366025519</v>
+        <v>13.74516280287087</v>
       </c>
       <c r="F4">
-        <v>34.80649681364381</v>
+        <v>33.1261047885181</v>
       </c>
       <c r="G4">
-        <v>2.02540043850417</v>
+        <v>3.648115624878236</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.766469133888508</v>
+        <v>9.239670170994417</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
-        <v>28.31455473916305</v>
+        <v>29.13942427315438</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.13986859026833</v>
+        <v>13.29232169284367</v>
       </c>
       <c r="D5">
-        <v>3.273756224449116</v>
+        <v>5.699651528292453</v>
       </c>
       <c r="E5">
-        <v>10.49719399826121</v>
+        <v>13.73414686557506</v>
       </c>
       <c r="F5">
-        <v>34.15734351253604</v>
+        <v>32.99374231114239</v>
       </c>
       <c r="G5">
-        <v>2.028643153993502</v>
+        <v>3.649314633341758</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.734132989306031</v>
+        <v>9.242777148845201</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>27.81827633354643</v>
+        <v>29.05283770159657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.11153769858007</v>
+        <v>13.28893392007817</v>
       </c>
       <c r="D6">
-        <v>3.272444784972308</v>
+        <v>5.700321935737549</v>
       </c>
       <c r="E6">
-        <v>10.4744402554719</v>
+        <v>13.73237220620931</v>
       </c>
       <c r="F6">
-        <v>34.04893311410778</v>
+        <v>32.97188325160016</v>
       </c>
       <c r="G6">
-        <v>2.029184182650719</v>
+        <v>3.649515867633657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.728821169637539</v>
+        <v>9.243319581575312</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>27.73548631938259</v>
+        <v>29.03857723123535</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.30780396540422</v>
+        <v>13.31277331633427</v>
       </c>
       <c r="D7">
-        <v>3.281826335587665</v>
+        <v>5.695760005535817</v>
       </c>
       <c r="E7">
-        <v>10.63238547005689</v>
+        <v>13.74501058573987</v>
       </c>
       <c r="F7">
-        <v>34.79778383798373</v>
+        <v>33.12431179315897</v>
       </c>
       <c r="G7">
-        <v>2.025444000448434</v>
+        <v>3.648131651765919</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.766029167009705</v>
+        <v>9.239710294240801</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
-        <v>28.30788768510688</v>
+        <v>29.13824874237422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.1634787582534</v>
+        <v>13.42589282295319</v>
       </c>
       <c r="D8">
-        <v>3.330491924155923</v>
+        <v>5.677896594854621</v>
       </c>
       <c r="E8">
-        <v>11.32880913725872</v>
+        <v>13.80866860424339</v>
       </c>
       <c r="F8">
-        <v>38.01029237581606</v>
+        <v>33.81311469682657</v>
       </c>
       <c r="G8">
-        <v>2.009287091715467</v>
+        <v>3.642333429923539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.938709830151797</v>
+        <v>9.227644183275331</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>30.7759799515433</v>
+        <v>29.59443518759517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.79867873743789</v>
+        <v>13.67501977545935</v>
       </c>
       <c r="D9">
-        <v>3.455923754367423</v>
+        <v>5.651062814987768</v>
       </c>
       <c r="E9">
-        <v>12.68789123979273</v>
+        <v>13.96139696018238</v>
       </c>
       <c r="F9">
-        <v>44.15536350745142</v>
+        <v>35.21014331858598</v>
       </c>
       <c r="G9">
-        <v>1.978556090650611</v>
+        <v>3.632067476928689</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.309303248579844</v>
+        <v>9.217907576451738</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>35.56127734704344</v>
+        <v>30.54108561838983</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.97411268640212</v>
+        <v>13.87351330624774</v>
       </c>
       <c r="D10">
-        <v>3.570531642957322</v>
+        <v>5.636387773005403</v>
       </c>
       <c r="E10">
-        <v>13.68221681696224</v>
+        <v>14.09010922011097</v>
       </c>
       <c r="F10">
-        <v>48.57609940499492</v>
+        <v>36.25410360309793</v>
       </c>
       <c r="G10">
-        <v>1.956225568301588</v>
+        <v>3.625188936927255</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.603048634752823</v>
+        <v>9.219279807822959</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>39.16638368586664</v>
+        <v>31.26204015738269</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.50439243461691</v>
+        <v>13.96689110188261</v>
       </c>
       <c r="D11">
-        <v>3.628636767488617</v>
+        <v>5.630815051330783</v>
       </c>
       <c r="E11">
-        <v>14.13460427860248</v>
+        <v>14.15211736002805</v>
       </c>
       <c r="F11">
-        <v>50.53915316072883</v>
+        <v>36.73061710149484</v>
       </c>
       <c r="G11">
-        <v>1.946030925056278</v>
+        <v>3.622201851554292</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.741989872040917</v>
+        <v>9.221760514494774</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>40.76633733074868</v>
+        <v>31.59417816948042</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.70473741812526</v>
+        <v>14.00266896467751</v>
       </c>
       <c r="D12">
-        <v>3.651607021092682</v>
+        <v>5.628864128346152</v>
       </c>
       <c r="E12">
-        <v>14.30607310686334</v>
+        <v>14.17608267467964</v>
       </c>
       <c r="F12">
-        <v>51.27649700280075</v>
+        <v>36.91111181689754</v>
       </c>
       <c r="G12">
-        <v>1.942156237962709</v>
+        <v>3.621090983327357</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.7954417590607</v>
+        <v>9.222966993544306</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>41.3671990063481</v>
+        <v>31.72043532706188</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.66160645118151</v>
+        <v>13.99494539814866</v>
       </c>
       <c r="D13">
-        <v>3.646615017953176</v>
+        <v>5.629277196090541</v>
       </c>
       <c r="E13">
-        <v>14.26913404251756</v>
+        <v>14.17089999553264</v>
       </c>
       <c r="F13">
-        <v>51.11794854975854</v>
+        <v>36.8722396914956</v>
       </c>
       <c r="G13">
-        <v>1.942991512168512</v>
+        <v>3.621329329158419</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.783891276839473</v>
+        <v>9.222695277311612</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>41.23800164724486</v>
+        <v>31.69322391484196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.52088290241588</v>
+        <v>13.96982634539408</v>
       </c>
       <c r="D14">
-        <v>3.630506471623498</v>
+        <v>5.630651350069042</v>
       </c>
       <c r="E14">
-        <v>14.14870683351902</v>
+        <v>14.15407937401407</v>
       </c>
       <c r="F14">
-        <v>50.59992984459196</v>
+        <v>36.74546654308784</v>
       </c>
       <c r="G14">
-        <v>1.945712493662569</v>
+        <v>3.622110054209239</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.746370102840754</v>
+        <v>9.221854419159639</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>40.81586603598451</v>
+        <v>31.60455638953862</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.43463214032145</v>
+        <v>13.95449382897115</v>
       </c>
       <c r="D15">
-        <v>3.620769013941091</v>
+        <v>5.631513831998677</v>
       </c>
       <c r="E15">
-        <v>14.07496802564009</v>
+        <v>14.14383891528427</v>
       </c>
       <c r="F15">
-        <v>50.28187356329601</v>
+        <v>36.66781545417744</v>
       </c>
       <c r="G15">
-        <v>1.947377032036155</v>
+        <v>3.622590907166923</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.72349895237865</v>
+        <v>9.221374153538857</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>40.55666886465978</v>
+        <v>31.55030453097894</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.93938203633859</v>
+        <v>13.86747070858826</v>
       </c>
       <c r="D16">
-        <v>3.566863337161899</v>
+        <v>5.636774222147579</v>
       </c>
       <c r="E16">
-        <v>13.65266492937935</v>
+        <v>14.08612531612221</v>
       </c>
       <c r="F16">
-        <v>48.44691444306189</v>
+        <v>36.2229790292487</v>
       </c>
       <c r="G16">
-        <v>1.956890347912755</v>
+        <v>3.625386995109486</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.594081279976558</v>
+        <v>9.219155059317094</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>39.06107800152531</v>
+        <v>31.24040815154042</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.63453158926607</v>
+        <v>13.81485638976041</v>
       </c>
       <c r="D17">
-        <v>3.535394668693377</v>
+        <v>5.640284338997454</v>
       </c>
       <c r="E17">
-        <v>13.39369933547149</v>
+        <v>14.05159630043378</v>
       </c>
       <c r="F17">
-        <v>47.30950414085298</v>
+        <v>35.95036740577823</v>
       </c>
       <c r="G17">
-        <v>1.962711223866237</v>
+        <v>3.627138571631213</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.516095195283121</v>
+        <v>9.21826934364171</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>38.13381408102214</v>
+        <v>31.05128235415316</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.45875805168959</v>
+        <v>13.78488571247737</v>
       </c>
       <c r="D18">
-        <v>3.517849141988553</v>
+        <v>5.642407044972952</v>
       </c>
       <c r="E18">
-        <v>13.24474256750822</v>
+        <v>14.03206227613792</v>
       </c>
       <c r="F18">
-        <v>46.65071808046169</v>
+        <v>35.79373059941134</v>
       </c>
       <c r="G18">
-        <v>1.966056430874285</v>
+        <v>3.628159406072558</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.471734464572908</v>
+        <v>9.217934644857733</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>37.59665511191003</v>
+        <v>30.94290182568167</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.3991657443303</v>
+        <v>13.77478901584949</v>
       </c>
       <c r="D19">
-        <v>3.512000726612767</v>
+        <v>5.643143558397747</v>
       </c>
       <c r="E19">
-        <v>13.19430366767184</v>
+        <v>14.02550478367911</v>
       </c>
       <c r="F19">
-        <v>46.42685470523863</v>
+        <v>35.7407295693666</v>
       </c>
       <c r="G19">
-        <v>1.967188827588359</v>
+        <v>3.628507344416974</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.456797746434153</v>
+        <v>9.217851327196907</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>37.41410569764928</v>
+        <v>30.90627823508273</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.66702704926742</v>
+        <v>13.82042726717809</v>
       </c>
       <c r="D20">
-        <v>3.538686452178577</v>
+        <v>5.639899934923041</v>
       </c>
       <c r="E20">
-        <v>13.42126646066819</v>
+        <v>14.05523830757427</v>
       </c>
       <c r="F20">
-        <v>47.43105147332252</v>
+        <v>35.97937193093676</v>
       </c>
       <c r="G20">
-        <v>1.962091932354466</v>
+        <v>3.626950730202652</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.524345268256446</v>
+        <v>9.218345543099945</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
-        <v>38.23291346768315</v>
+        <v>31.0713746036034</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.56222755873744</v>
+        <v>13.977193290522</v>
       </c>
       <c r="D21">
-        <v>3.635210734643108</v>
+        <v>5.630243397387904</v>
       </c>
       <c r="E21">
-        <v>14.1840733749125</v>
+        <v>14.15900696467714</v>
       </c>
       <c r="F21">
-        <v>50.75223995908951</v>
+        <v>36.78270297203284</v>
       </c>
       <c r="G21">
-        <v>1.944913739950471</v>
+        <v>3.621880187184309</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.75736755133499</v>
+        <v>9.222094150543212</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>40.93998657555957</v>
+        <v>31.6305879843048</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>16.14474327494896</v>
+        <v>14.0820713647514</v>
       </c>
       <c r="D22">
-        <v>3.703997103042273</v>
+        <v>5.624861408286409</v>
       </c>
       <c r="E22">
-        <v>14.68365970767416</v>
+        <v>14.22964135465732</v>
       </c>
       <c r="F22">
-        <v>52.8882850491534</v>
+        <v>37.30793404426885</v>
       </c>
       <c r="G22">
-        <v>1.933598690936438</v>
+        <v>3.618684413146165</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.914595059633695</v>
+        <v>9.226100839348996</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>42.68050702900398</v>
+        <v>31.99883269342842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.83399977487319</v>
+        <v>14.02588293528818</v>
       </c>
       <c r="D23">
-        <v>3.666721649538515</v>
+        <v>5.627648625605701</v>
       </c>
       <c r="E23">
-        <v>14.41685815725258</v>
+        <v>14.19168929947749</v>
       </c>
       <c r="F23">
-        <v>51.75105508127936</v>
+        <v>37.02764794139411</v>
       </c>
       <c r="G23">
-        <v>1.939649195053647</v>
+        <v>3.620379297130368</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.830198273193585</v>
+        <v>9.223819945605371</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>41.75389364087389</v>
+        <v>31.80207850291564</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.6523374556375</v>
+        <v>13.81790780568118</v>
       </c>
       <c r="D24">
-        <v>3.537196543458311</v>
+        <v>5.640073397964894</v>
       </c>
       <c r="E24">
-        <v>13.40880360425599</v>
+        <v>14.05359076728055</v>
       </c>
       <c r="F24">
-        <v>47.37611516819656</v>
+        <v>35.96625868700839</v>
       </c>
       <c r="G24">
-        <v>1.962371917418601</v>
+        <v>3.627035610225261</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.520613937518381</v>
+        <v>9.218310549773868</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>38.18812334341493</v>
+        <v>31.06228979734288</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.36107660358973</v>
+        <v>13.60481832645839</v>
       </c>
       <c r="D25">
-        <v>3.41837871671932</v>
+        <v>5.657440090125234</v>
       </c>
       <c r="E25">
-        <v>12.32111188193891</v>
+        <v>13.91714100409435</v>
       </c>
       <c r="F25">
-        <v>42.48007263441965</v>
+        <v>34.82835901985329</v>
       </c>
       <c r="G25">
-        <v>1.986799265181135</v>
+        <v>3.634727432625657</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.205452475940572</v>
+        <v>9.219046490638688</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>34.19401202137524</v>
+        <v>30.28005906737457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.45843057308089</v>
+        <v>12.39254026850638</v>
       </c>
       <c r="D2">
-        <v>5.67360955427247</v>
+        <v>3.345569271255873</v>
       </c>
       <c r="E2">
-        <v>13.82782050721507</v>
+        <v>11.51715980776102</v>
       </c>
       <c r="F2">
-        <v>34.00327528687026</v>
+        <v>38.8579167899652</v>
       </c>
       <c r="G2">
-        <v>3.640837487773293</v>
+        <v>2.004984670427272</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.225315554510207</v>
+        <v>5.987604228685091</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>29.72179095132885</v>
+        <v>31.43017226603312</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3661654808872</v>
+        <v>11.72500585479653</v>
       </c>
       <c r="D3">
-        <v>5.686663600237641</v>
+        <v>3.30401270596288</v>
       </c>
       <c r="E3">
-        <v>13.77440445474033</v>
+        <v>10.97044231207409</v>
       </c>
       <c r="F3">
-        <v>33.4555667402718</v>
+        <v>36.3739365992613</v>
       </c>
       <c r="G3">
-        <v>3.645260097764718</v>
+        <v>2.017543224348843</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.233124427980423</v>
+        <v>5.84817953100453</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>29.35654874916323</v>
+        <v>29.51642527871618</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.31305664959141</v>
+        <v>11.31009524920678</v>
       </c>
       <c r="D4">
-        <v>5.695707863816937</v>
+        <v>3.281939918277906</v>
       </c>
       <c r="E4">
-        <v>13.74516280287087</v>
+        <v>10.63423366025523</v>
       </c>
       <c r="F4">
-        <v>33.1261047885181</v>
+        <v>34.8064968136438</v>
       </c>
       <c r="G4">
-        <v>3.648115624878236</v>
+        <v>2.025400438504303</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.239670170994417</v>
+        <v>5.766469133888522</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>29.13942427315438</v>
+        <v>28.31455473916303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.29232169284367</v>
+        <v>11.13986859026837</v>
       </c>
       <c r="D5">
-        <v>5.699651528292453</v>
+        <v>3.27375622444915</v>
       </c>
       <c r="E5">
-        <v>13.73414686557506</v>
+        <v>10.49719399826131</v>
       </c>
       <c r="F5">
-        <v>32.99374231114239</v>
+        <v>34.15734351253602</v>
       </c>
       <c r="G5">
-        <v>3.649314633341758</v>
+        <v>2.028643153993767</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.242777148845201</v>
+        <v>5.734132989306113</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>29.05283770159657</v>
+        <v>27.81827633354643</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.28893392007817</v>
+        <v>11.11153769858012</v>
       </c>
       <c r="D6">
-        <v>5.700321935737549</v>
+        <v>3.272444784972321</v>
       </c>
       <c r="E6">
-        <v>13.73237220620931</v>
+        <v>10.47444025547193</v>
       </c>
       <c r="F6">
-        <v>32.97188325160016</v>
+        <v>34.04893311410774</v>
       </c>
       <c r="G6">
-        <v>3.649515867633657</v>
+        <v>2.029184182650717</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.243319581575312</v>
+        <v>5.728821169637556</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>29.03857723123535</v>
+        <v>27.73548631938262</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.31277331633427</v>
+        <v>11.30780396540423</v>
       </c>
       <c r="D7">
-        <v>5.695760005535817</v>
+        <v>3.281826335587882</v>
       </c>
       <c r="E7">
-        <v>13.74501058573987</v>
+        <v>10.63238547005691</v>
       </c>
       <c r="F7">
-        <v>33.12431179315897</v>
+        <v>34.79778383798371</v>
       </c>
       <c r="G7">
-        <v>3.648131651765919</v>
+        <v>2.025444000448301</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.239710294240801</v>
+        <v>5.766029167009674</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>29.13824874237422</v>
+        <v>28.3078876851069</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.42589282295319</v>
+        <v>12.16347875825337</v>
       </c>
       <c r="D8">
-        <v>5.677896594854621</v>
+        <v>3.330491924155895</v>
       </c>
       <c r="E8">
-        <v>13.80866860424339</v>
+        <v>11.32880913725871</v>
       </c>
       <c r="F8">
-        <v>33.81311469682657</v>
+        <v>38.01029237581602</v>
       </c>
       <c r="G8">
-        <v>3.642333429923539</v>
+        <v>2.009287091715339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.227644183275331</v>
+        <v>5.938709830151804</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>29.59443518759517</v>
+        <v>30.77597995154327</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.67501977545935</v>
+        <v>13.79867873743789</v>
       </c>
       <c r="D9">
-        <v>5.651062814987768</v>
+        <v>3.455923754367408</v>
       </c>
       <c r="E9">
-        <v>13.96139696018238</v>
+        <v>12.68789123979271</v>
       </c>
       <c r="F9">
-        <v>35.21014331858598</v>
+        <v>44.1553635074514</v>
       </c>
       <c r="G9">
-        <v>3.632067476928689</v>
+        <v>1.978556090650481</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.217907576451738</v>
+        <v>6.309303248579837</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>30.54108561838983</v>
+        <v>35.56127734704341</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.87351330624774</v>
+        <v>14.97411268640209</v>
       </c>
       <c r="D10">
-        <v>5.636387773005403</v>
+        <v>3.570531642957307</v>
       </c>
       <c r="E10">
-        <v>14.09010922011097</v>
+        <v>13.68221681696224</v>
       </c>
       <c r="F10">
-        <v>36.25410360309793</v>
+        <v>48.57609940499497</v>
       </c>
       <c r="G10">
-        <v>3.625188936927255</v>
+        <v>1.956225568301721</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.219279807822959</v>
+        <v>6.603048634752816</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>31.26204015738269</v>
+        <v>39.16638368586671</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.96689110188261</v>
+        <v>15.50439243461689</v>
       </c>
       <c r="D11">
-        <v>5.630815051330783</v>
+        <v>3.628636767488576</v>
       </c>
       <c r="E11">
-        <v>14.15211736002805</v>
+        <v>14.13460427860248</v>
       </c>
       <c r="F11">
-        <v>36.73061710149484</v>
+        <v>50.5391531607289</v>
       </c>
       <c r="G11">
-        <v>3.622201851554292</v>
+        <v>1.946030925056407</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.221760514494774</v>
+        <v>6.741989872040935</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>31.59417816948042</v>
+        <v>40.76633733074872</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.00266896467751</v>
+        <v>15.70473741812528</v>
       </c>
       <c r="D12">
-        <v>5.628864128346152</v>
+        <v>3.651607021092631</v>
       </c>
       <c r="E12">
-        <v>14.17608267467964</v>
+        <v>14.30607310686337</v>
       </c>
       <c r="F12">
-        <v>36.91111181689754</v>
+        <v>51.27649700280072</v>
       </c>
       <c r="G12">
-        <v>3.621090983327357</v>
+        <v>1.942156237962844</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.222966993544306</v>
+        <v>6.7954417590607</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>31.72043532706188</v>
+        <v>41.36719900634809</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.99494539814866</v>
+        <v>15.66160645118154</v>
       </c>
       <c r="D13">
-        <v>5.629277196090541</v>
+        <v>3.646615017953198</v>
       </c>
       <c r="E13">
-        <v>14.17089999553264</v>
+        <v>14.26913404251758</v>
       </c>
       <c r="F13">
-        <v>36.8722396914956</v>
+        <v>51.11794854975875</v>
       </c>
       <c r="G13">
-        <v>3.621329329158419</v>
+        <v>1.942991512168393</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.222695277311612</v>
+        <v>6.783891276839488</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>31.69322391484196</v>
+        <v>41.23800164724501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.96982634539408</v>
+        <v>15.52088290241588</v>
       </c>
       <c r="D14">
-        <v>5.630651350069042</v>
+        <v>3.630506471623477</v>
       </c>
       <c r="E14">
-        <v>14.15407937401407</v>
+        <v>14.14870683351904</v>
       </c>
       <c r="F14">
-        <v>36.74546654308784</v>
+        <v>50.599929844592</v>
       </c>
       <c r="G14">
-        <v>3.622110054209239</v>
+        <v>1.945712493662572</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.221854419159639</v>
+        <v>6.746370102840753</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>31.60455638953862</v>
+        <v>40.81586603598454</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.95449382897115</v>
+        <v>15.43463214032144</v>
       </c>
       <c r="D15">
-        <v>5.631513831998677</v>
+        <v>3.620769013941091</v>
       </c>
       <c r="E15">
-        <v>14.14383891528427</v>
+        <v>14.07496802564007</v>
       </c>
       <c r="F15">
-        <v>36.66781545417744</v>
+        <v>50.28187356329601</v>
       </c>
       <c r="G15">
-        <v>3.622590907166923</v>
+        <v>1.947377032036023</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.221374153538857</v>
+        <v>6.723498952378637</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>31.55030453097894</v>
+        <v>40.5566688646598</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.86747070858826</v>
+        <v>14.93938203633862</v>
       </c>
       <c r="D16">
-        <v>5.636774222147579</v>
+        <v>3.566863337161951</v>
       </c>
       <c r="E16">
-        <v>14.08612531612221</v>
+        <v>13.65266492937935</v>
       </c>
       <c r="F16">
-        <v>36.2229790292487</v>
+        <v>48.44691444306208</v>
       </c>
       <c r="G16">
-        <v>3.625386995109486</v>
+        <v>1.956890347912758</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.219155059317094</v>
+        <v>6.594081279976558</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>31.24040815154042</v>
+        <v>39.06107800152546</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.81485638976041</v>
+        <v>14.63453158926607</v>
       </c>
       <c r="D17">
-        <v>5.640284338997454</v>
+        <v>3.535394668693322</v>
       </c>
       <c r="E17">
-        <v>14.05159630043378</v>
+        <v>13.39369933547149</v>
       </c>
       <c r="F17">
-        <v>35.95036740577823</v>
+        <v>47.30950414085311</v>
       </c>
       <c r="G17">
-        <v>3.627138571631213</v>
+        <v>1.962711223866105</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.21826934364171</v>
+        <v>6.516095195283132</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>31.05128235415316</v>
+        <v>38.13381408102223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.78488571247737</v>
+        <v>14.45875805168957</v>
       </c>
       <c r="D18">
-        <v>5.642407044972952</v>
+        <v>3.517849141988648</v>
       </c>
       <c r="E18">
-        <v>14.03206227613792</v>
+        <v>13.24474256750822</v>
       </c>
       <c r="F18">
-        <v>35.79373059941134</v>
+        <v>46.65071808046164</v>
       </c>
       <c r="G18">
-        <v>3.628159406072558</v>
+        <v>1.966056430874278</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.217934644857733</v>
+        <v>6.471734464572891</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>30.94290182568167</v>
+        <v>37.59665511190997</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.77478901584949</v>
+        <v>14.39916574433027</v>
       </c>
       <c r="D19">
-        <v>5.643143558397747</v>
+        <v>3.512000726612775</v>
       </c>
       <c r="E19">
-        <v>14.02550478367911</v>
+        <v>13.19430366767185</v>
       </c>
       <c r="F19">
-        <v>35.7407295693666</v>
+        <v>46.42685470523858</v>
       </c>
       <c r="G19">
-        <v>3.628507344416974</v>
+        <v>1.967188827588361</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.217851327196907</v>
+        <v>6.456797746434144</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
-        <v>30.90627823508273</v>
+        <v>37.41410569764923</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.82042726717809</v>
+        <v>14.66702704926739</v>
       </c>
       <c r="D20">
-        <v>5.639899934923041</v>
+        <v>3.538686452178528</v>
       </c>
       <c r="E20">
-        <v>14.05523830757427</v>
+        <v>13.42126646066818</v>
       </c>
       <c r="F20">
-        <v>35.97937193093676</v>
+        <v>47.43105147332237</v>
       </c>
       <c r="G20">
-        <v>3.626950730202652</v>
+        <v>1.962091932354731</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.218345543099945</v>
+        <v>6.524345268256476</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>31.0713746036034</v>
+        <v>38.23291346768301</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.977193290522</v>
+        <v>15.5622275587374</v>
       </c>
       <c r="D21">
-        <v>5.630243397387904</v>
+        <v>3.635210734643125</v>
       </c>
       <c r="E21">
-        <v>14.15900696467714</v>
+        <v>14.18407337491249</v>
       </c>
       <c r="F21">
-        <v>36.78270297203284</v>
+        <v>50.75223995908949</v>
       </c>
       <c r="G21">
-        <v>3.621880187184309</v>
+        <v>1.944913739950469</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.222094150543212</v>
+        <v>6.757367551334982</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>31.6305879843048</v>
+        <v>40.93998657555957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.0820713647514</v>
+        <v>16.14474327494903</v>
       </c>
       <c r="D22">
-        <v>5.624861408286409</v>
+        <v>3.703997103042273</v>
       </c>
       <c r="E22">
-        <v>14.22964135465732</v>
+        <v>14.68365970767418</v>
       </c>
       <c r="F22">
-        <v>37.30793404426885</v>
+        <v>52.88828504915347</v>
       </c>
       <c r="G22">
-        <v>3.618684413146165</v>
+        <v>1.933598690936702</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.226100839348996</v>
+        <v>6.914595059633662</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>31.99883269342842</v>
+        <v>42.68050702900405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.02588293528818</v>
+        <v>15.83399977487321</v>
       </c>
       <c r="D23">
-        <v>5.627648625605701</v>
+        <v>3.666721649538585</v>
       </c>
       <c r="E23">
-        <v>14.19168929947749</v>
+        <v>14.4168581572526</v>
       </c>
       <c r="F23">
-        <v>37.02764794139411</v>
+        <v>51.7510550812794</v>
       </c>
       <c r="G23">
-        <v>3.620379297130368</v>
+        <v>1.939649195053519</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.223819945605371</v>
+        <v>6.830198273193609</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>31.80207850291564</v>
+        <v>41.7538936408739</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.81790780568118</v>
+        <v>14.6523374556375</v>
       </c>
       <c r="D24">
-        <v>5.640073397964894</v>
+        <v>3.537196543458351</v>
       </c>
       <c r="E24">
-        <v>14.05359076728055</v>
+        <v>13.40880360425599</v>
       </c>
       <c r="F24">
-        <v>35.96625868700839</v>
+        <v>47.37611516819665</v>
       </c>
       <c r="G24">
-        <v>3.627035610225261</v>
+        <v>1.962371917418604</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.218310549773868</v>
+        <v>6.520613937518381</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>31.06228979734288</v>
+        <v>38.18812334341498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.60481832645839</v>
+        <v>13.36107660358973</v>
       </c>
       <c r="D25">
-        <v>5.657440090125234</v>
+        <v>3.418378716719313</v>
       </c>
       <c r="E25">
-        <v>13.91714100409435</v>
+        <v>12.3211118819389</v>
       </c>
       <c r="F25">
-        <v>34.82835901985329</v>
+        <v>42.48007263441958</v>
       </c>
       <c r="G25">
-        <v>3.634727432625657</v>
+        <v>1.986799265180999</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.219046490638688</v>
+        <v>6.205452475940572</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>30.28005906737457</v>
+        <v>34.1940120213752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.39254026850638</v>
+        <v>7.746109754746707</v>
       </c>
       <c r="D2">
-        <v>3.345569271255873</v>
+        <v>2.279926729993257</v>
       </c>
       <c r="E2">
-        <v>11.51715980776102</v>
+        <v>64.67707333497017</v>
       </c>
       <c r="F2">
-        <v>38.8579167899652</v>
+        <v>22.64313345163128</v>
       </c>
       <c r="G2">
-        <v>2.004984670427272</v>
+        <v>32.99278893039293</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.384470646977267</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.594075518512435</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.714822292874446</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.65743289953522</v>
       </c>
       <c r="L2">
-        <v>5.987604228685091</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>31.43017226603312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>99.74667963050183</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.72500585479653</v>
+        <v>7.183045125208899</v>
       </c>
       <c r="D3">
-        <v>3.30401270596288</v>
+        <v>2.131485066780577</v>
       </c>
       <c r="E3">
-        <v>10.97044231207409</v>
+        <v>60.5420706459328</v>
       </c>
       <c r="F3">
-        <v>36.3739365992613</v>
+        <v>20.81124892325843</v>
       </c>
       <c r="G3">
-        <v>2.017543224348843</v>
+        <v>29.97739433249594</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.253797705959827</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6.098170754927278</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.372039066838914</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.69261367518857</v>
       </c>
       <c r="L3">
-        <v>5.84817953100453</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>29.51642527871618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>92.28183348415018</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.31009524920678</v>
+        <v>6.832594865251193</v>
       </c>
       <c r="D4">
-        <v>3.281939918277906</v>
+        <v>2.14202152743705</v>
       </c>
       <c r="E4">
-        <v>10.63423366025523</v>
+        <v>57.84007761098269</v>
       </c>
       <c r="F4">
-        <v>34.8064968136438</v>
+        <v>19.82282657514585</v>
       </c>
       <c r="G4">
-        <v>2.025400438504303</v>
+        <v>28.14096076271866</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.580419085946748</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5.792618362844276</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.191388135809147</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.12825789734872</v>
       </c>
       <c r="L4">
-        <v>5.766469133888522</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>28.31455473916303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>87.56891366346987</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.13986859026837</v>
+        <v>6.681917117005066</v>
       </c>
       <c r="D5">
-        <v>3.27375622444915</v>
+        <v>2.168684345948632</v>
       </c>
       <c r="E5">
-        <v>10.49719399826131</v>
+        <v>56.69758972935627</v>
       </c>
       <c r="F5">
-        <v>34.15734351253602</v>
+        <v>19.40693616952517</v>
       </c>
       <c r="G5">
-        <v>2.028643153993767</v>
+        <v>27.37812414311175</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.309360457872801</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.666558790761465</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.117168087594742</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.88556876556774</v>
       </c>
       <c r="L5">
-        <v>5.734132989306113</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>27.81827633354643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>85.61004508823167</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.11153769858012</v>
+        <v>6.649175617054014</v>
       </c>
       <c r="D6">
-        <v>3.272444784972321</v>
+        <v>2.176776814568155</v>
       </c>
       <c r="E6">
-        <v>10.47444025547193</v>
+        <v>56.50538766145809</v>
       </c>
       <c r="F6">
-        <v>34.04893311410774</v>
+        <v>19.31376732546021</v>
       </c>
       <c r="G6">
-        <v>2.029184182650717</v>
+        <v>27.2123933135978</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.264114027955292</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.644549138229016</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.096087457830714</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.82211123994654</v>
       </c>
       <c r="L6">
-        <v>5.728821169637556</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>27.73548631938262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>85.28220831178471</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.30780396540423</v>
+        <v>6.81027651072673</v>
       </c>
       <c r="D7">
-        <v>3.281826335587882</v>
+        <v>2.152461299446597</v>
       </c>
       <c r="E7">
-        <v>10.63238547005691</v>
+        <v>57.824898796889</v>
       </c>
       <c r="F7">
-        <v>34.79778383798371</v>
+        <v>19.75148214889611</v>
       </c>
       <c r="G7">
-        <v>2.025444000448301</v>
+        <v>28.01505113152622</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.575599691171432</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.787952746602071</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.165443748424318</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.06141036603986</v>
       </c>
       <c r="L7">
-        <v>5.766029167009674</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>28.3078876851069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>87.5423110012144</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.16347875825337</v>
+        <v>7.52815891333769</v>
       </c>
       <c r="D8">
-        <v>3.330491924155895</v>
+        <v>2.244137020370799</v>
       </c>
       <c r="E8">
-        <v>11.32880913725871</v>
+        <v>63.28502644503659</v>
       </c>
       <c r="F8">
-        <v>38.01029237581602</v>
+        <v>21.88258621828214</v>
       </c>
       <c r="G8">
-        <v>2.009287091715339</v>
+        <v>31.80978270499459</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.987697828914787</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6.418996821762136</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.557740579440669</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.23824848216595</v>
       </c>
       <c r="L8">
-        <v>5.938709830151804</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>30.77597995154327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>97.19523340280462</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.79867873743789</v>
+        <v>8.955943654915622</v>
       </c>
       <c r="D9">
-        <v>3.455923754367408</v>
+        <v>2.601341235727438</v>
       </c>
       <c r="E9">
-        <v>12.68789123979271</v>
+        <v>72.7171066814989</v>
       </c>
       <c r="F9">
-        <v>44.1553635074514</v>
+        <v>26.93978296191868</v>
       </c>
       <c r="G9">
-        <v>1.978556090650481</v>
+        <v>39.64899888169274</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.02274427614102</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.674945668403761</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.793061777396565</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.23161596869931</v>
       </c>
       <c r="L9">
-        <v>6.309303248579837</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380646</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>35.56127734704341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>115.4528463445964</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.97411268640209</v>
+        <v>10.09010952148827</v>
       </c>
       <c r="D10">
-        <v>3.570531642957307</v>
+        <v>2.938516642048687</v>
       </c>
       <c r="E10">
-        <v>13.68221681696224</v>
+        <v>79.83503492034289</v>
       </c>
       <c r="F10">
-        <v>48.57609940499497</v>
+        <v>30.62400651918175</v>
       </c>
       <c r="G10">
-        <v>1.956225568301721</v>
+        <v>45.41924865964528</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.6569865591208</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8.663321748088624</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.197334351135</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.80188815658569</v>
       </c>
       <c r="L10">
-        <v>6.603048634752816</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>39.16638368586671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>129.2724196971656</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.50439243461689</v>
+        <v>11.05169309360842</v>
       </c>
       <c r="D11">
-        <v>3.628636767488576</v>
+        <v>3.593442426395304</v>
       </c>
       <c r="E11">
-        <v>14.13460427860248</v>
+        <v>91.09325984574407</v>
       </c>
       <c r="F11">
-        <v>50.5391531607289</v>
+        <v>30.82744986831277</v>
       </c>
       <c r="G11">
-        <v>1.946030925056407</v>
+        <v>45.61174636620612</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.47780617166993</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.293475965629508</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.20287736736353</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.77052449527575</v>
       </c>
       <c r="L11">
-        <v>6.741989872040935</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374474</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>40.76633733074872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>136.33317415837</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.70473741812528</v>
+        <v>11.69746856103344</v>
       </c>
       <c r="D12">
-        <v>3.651607021092631</v>
+        <v>4.091858652017975</v>
       </c>
       <c r="E12">
-        <v>14.30607310686337</v>
+        <v>99.42862887200781</v>
       </c>
       <c r="F12">
-        <v>51.27649700280072</v>
+        <v>30.43852988139791</v>
       </c>
       <c r="G12">
-        <v>1.942156237962844</v>
+        <v>44.97354778292127</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16.70775554125358</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>9.654768965219123</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.01277193684136</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.37489246834188</v>
       </c>
       <c r="L12">
-        <v>6.7954417590607</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>41.36719900634809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>139.448636723095</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.66160645118154</v>
+        <v>12.08816260007831</v>
       </c>
       <c r="D13">
-        <v>3.646615017953198</v>
+        <v>4.520031986217787</v>
       </c>
       <c r="E13">
-        <v>14.26913404251758</v>
+        <v>106.1997143613648</v>
       </c>
       <c r="F13">
-        <v>51.11794854975875</v>
+        <v>29.29611789946329</v>
       </c>
       <c r="G13">
-        <v>1.942991512168393</v>
+        <v>43.18422627542409</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>17.39897604118409</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>9.795939304951553</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.53953919761763</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.45964295834011</v>
       </c>
       <c r="L13">
-        <v>6.783891276839488</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617571</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>41.23800164724501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>139.2915878003496</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.52088290241588</v>
+        <v>12.24261474286333</v>
       </c>
       <c r="D14">
-        <v>3.630506471623477</v>
+        <v>4.798290530310945</v>
       </c>
       <c r="E14">
-        <v>14.14870683351904</v>
+        <v>110.3056834982678</v>
       </c>
       <c r="F14">
-        <v>50.599929844592</v>
+        <v>28.10374756655181</v>
       </c>
       <c r="G14">
-        <v>1.945712493662572</v>
+        <v>41.33222527825778</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>17.6530054010227</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>9.79205636757569</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.05896789012098</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.5435401918889</v>
       </c>
       <c r="L14">
-        <v>6.746370102840753</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188478</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>40.81586603598454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>137.6549647381187</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.43463214032144</v>
+        <v>12.21011657046508</v>
       </c>
       <c r="D15">
-        <v>3.620769013941091</v>
+        <v>4.852765281453178</v>
       </c>
       <c r="E15">
-        <v>14.07496802564007</v>
+        <v>110.9356693516313</v>
       </c>
       <c r="F15">
-        <v>50.28187356329601</v>
+        <v>27.59295200190405</v>
       </c>
       <c r="G15">
-        <v>1.947377032036023</v>
+        <v>40.52768865311786</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>17.56704055404365</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>9.735925228041379</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.854145759585659</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.16274483784682</v>
       </c>
       <c r="L15">
-        <v>6.723498952378637</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549474</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>40.5566688646598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>136.5361277409675</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.93938203633862</v>
+        <v>11.57187014635594</v>
       </c>
       <c r="D16">
-        <v>3.566863337161951</v>
+        <v>4.661360442514844</v>
       </c>
       <c r="E16">
-        <v>13.65266492937935</v>
+        <v>106.9567780822815</v>
       </c>
       <c r="F16">
-        <v>48.44691444306208</v>
+        <v>25.68612669754238</v>
       </c>
       <c r="G16">
-        <v>1.956890347912758</v>
+        <v>37.42569215353686</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>16.07172823642277</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.213191052622484</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.09073839143571</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.84767065493194</v>
       </c>
       <c r="L16">
-        <v>6.594081279976558</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>39.06107800152546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>129.9075516009875</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.63453158926607</v>
+        <v>11.01593415360677</v>
       </c>
       <c r="D17">
-        <v>3.535394668693322</v>
+        <v>4.35855350570075</v>
       </c>
       <c r="E17">
-        <v>13.39369933547149</v>
+        <v>101.6150290756326</v>
       </c>
       <c r="F17">
-        <v>47.30950414085311</v>
+        <v>24.99097061580709</v>
       </c>
       <c r="G17">
-        <v>1.962711223866105</v>
+        <v>36.25625830535276</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.82819702250047</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>8.833059847398504</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.820388148119054</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.41771557765265</v>
       </c>
       <c r="L17">
-        <v>6.516095195283132</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>38.13381408102223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>125.920279052225</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.45875805168957</v>
+        <v>10.48771570562679</v>
       </c>
       <c r="D18">
-        <v>3.517849141988648</v>
+        <v>3.921225790025683</v>
       </c>
       <c r="E18">
-        <v>13.24474256750822</v>
+        <v>94.61048546589711</v>
       </c>
       <c r="F18">
-        <v>46.65071808046164</v>
+        <v>25.33818594979773</v>
       </c>
       <c r="G18">
-        <v>1.966056430874278</v>
+        <v>36.78595793577053</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.67941735812287</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>8.535373865728195</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.984793139788612</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.76989793306499</v>
       </c>
       <c r="L18">
-        <v>6.471734464572891</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680427</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>37.59665511190997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>123.5558893114721</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.39916574433027</v>
+        <v>10.01274312035264</v>
       </c>
       <c r="D19">
-        <v>3.512000726612775</v>
+        <v>3.444873316100468</v>
       </c>
       <c r="E19">
-        <v>13.19430366767185</v>
+        <v>86.9728214295631</v>
       </c>
       <c r="F19">
-        <v>46.42685470523858</v>
+        <v>26.44353611423601</v>
       </c>
       <c r="G19">
-        <v>1.967188827588361</v>
+        <v>38.59531987360313</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.84178204686768</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.333831590489648</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.469605891754362</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.65656749112816</v>
       </c>
       <c r="L19">
-        <v>6.456797746434144</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>37.41410569764923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>122.618254885328</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.66702704926739</v>
+        <v>9.741519644337986</v>
       </c>
       <c r="D20">
-        <v>3.538686452178528</v>
+        <v>2.876897820529763</v>
       </c>
       <c r="E20">
-        <v>13.42126646066818</v>
+        <v>78.06431928630381</v>
       </c>
       <c r="F20">
-        <v>47.43105147332237</v>
+        <v>29.46200526455426</v>
       </c>
       <c r="G20">
-        <v>1.962091932354731</v>
+        <v>43.56664008257699</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.91569330944413</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8.388358935045744</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.74224649704329</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.94162309100185</v>
       </c>
       <c r="L20">
-        <v>6.524345268256476</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>38.23291346768301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>125.54391568213</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.5622275587374</v>
+        <v>10.60186100923773</v>
       </c>
       <c r="D21">
-        <v>3.635210734643125</v>
+        <v>3.057634509299523</v>
       </c>
       <c r="E21">
-        <v>14.18407337491249</v>
+        <v>81.84064896736355</v>
       </c>
       <c r="F21">
-        <v>50.75223995908949</v>
+        <v>32.79826255076702</v>
       </c>
       <c r="G21">
-        <v>1.944913739950469</v>
+        <v>48.87940221001675</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.16157235201842</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>9.169746047023438</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.04930307757019</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.30134625485323</v>
       </c>
       <c r="L21">
-        <v>6.757367551334982</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>40.93998657555957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>136.7335322756472</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>16.14474327494903</v>
+        <v>11.25937849221423</v>
       </c>
       <c r="D22">
-        <v>3.703997103042273</v>
+        <v>3.214430850864654</v>
       </c>
       <c r="E22">
-        <v>14.68365970767418</v>
+        <v>84.66958327627415</v>
       </c>
       <c r="F22">
-        <v>52.88828504915347</v>
+        <v>35.11731192032453</v>
       </c>
       <c r="G22">
-        <v>1.933598690936702</v>
+        <v>52.60156353300416</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>16.92621877322958</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.740401119813097</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.9663665084271</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.94822549612464</v>
       </c>
       <c r="L22">
-        <v>6.914595059633662</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050592</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>42.68050702900405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>144.9086380618118</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.83399977487321</v>
+        <v>10.91602343368469</v>
       </c>
       <c r="D23">
-        <v>3.666721649538585</v>
+        <v>3.119914492930969</v>
       </c>
       <c r="E23">
-        <v>14.4168581572526</v>
+        <v>83.16996472600081</v>
       </c>
       <c r="F23">
-        <v>51.7510550812794</v>
+        <v>33.90887332236122</v>
       </c>
       <c r="G23">
-        <v>1.939649195053519</v>
+        <v>50.66369466802861</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.94854942342211</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.43250965033539</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.48934931559169</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.10768287050402</v>
       </c>
       <c r="L23">
-        <v>6.830198273193609</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>41.7538936408739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>140.426937308822</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.6523374556375</v>
+        <v>9.718006473987877</v>
       </c>
       <c r="D24">
-        <v>3.537196543458351</v>
+        <v>2.81520670905189</v>
       </c>
       <c r="E24">
-        <v>13.40880360425599</v>
+        <v>77.24796890149378</v>
       </c>
       <c r="F24">
-        <v>47.37611516819665</v>
+        <v>29.65977152249585</v>
       </c>
       <c r="G24">
-        <v>1.962371917418604</v>
+        <v>43.90892116038893</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.86726000698489</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8.369711711991821</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.83121962500079</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.12137134771195</v>
       </c>
       <c r="L24">
-        <v>6.520613937518381</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>38.18812334341498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>125.3542698003284</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.36107660358973</v>
+        <v>8.537446155431681</v>
       </c>
       <c r="D25">
-        <v>3.418378716719313</v>
+        <v>2.521027967794191</v>
       </c>
       <c r="E25">
-        <v>12.3211118819389</v>
+        <v>70.29944909027499</v>
       </c>
       <c r="F25">
-        <v>42.48007263441958</v>
+        <v>25.45588181570172</v>
       </c>
       <c r="G25">
-        <v>1.986799265180999</v>
+        <v>37.31832150677172</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.15424498217774</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.325110777649687</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.270748087708704</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.15040609447869</v>
       </c>
       <c r="L25">
-        <v>6.205452475940572</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>34.1940120213752</v>
+        <v>110.5233029042352</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.746109754746707</v>
+        <v>7.539418827724237</v>
       </c>
       <c r="D2">
-        <v>2.279926729993257</v>
+        <v>2.661632903158099</v>
       </c>
       <c r="E2">
-        <v>64.67707333497017</v>
+        <v>64.70729694523881</v>
       </c>
       <c r="F2">
-        <v>22.64313345163128</v>
+        <v>19.94171035629527</v>
       </c>
       <c r="G2">
-        <v>32.99278893039293</v>
+        <v>28.56455207679474</v>
       </c>
       <c r="H2">
-        <v>8.384470646977267</v>
+        <v>8.119985107343213</v>
       </c>
       <c r="I2">
-        <v>6.594075518512435</v>
+        <v>5.947110812118579</v>
       </c>
       <c r="J2">
-        <v>8.714822292874446</v>
+        <v>8.705024163471958</v>
       </c>
       <c r="K2">
-        <v>16.65743289953522</v>
+        <v>14.47182486424168</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.63468999692908</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.38041105812942</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>99.74667963050183</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>99.63762690925083</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.183045125208899</v>
+        <v>6.941713972268479</v>
       </c>
       <c r="D3">
-        <v>2.131485066780577</v>
+        <v>2.6568232540864</v>
       </c>
       <c r="E3">
-        <v>60.5420706459328</v>
+        <v>60.56387127438499</v>
       </c>
       <c r="F3">
-        <v>20.81124892325843</v>
+        <v>18.69607010752978</v>
       </c>
       <c r="G3">
-        <v>29.97739433249594</v>
+        <v>26.03140725851559</v>
       </c>
       <c r="H3">
-        <v>7.253797705959827</v>
+        <v>7.033658270094516</v>
       </c>
       <c r="I3">
-        <v>6.098170754927278</v>
+        <v>5.551324327008912</v>
       </c>
       <c r="J3">
-        <v>8.372039066838914</v>
+        <v>8.550682996086307</v>
       </c>
       <c r="K3">
-        <v>15.69261367518857</v>
+        <v>13.8938107335837</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.52791706353896</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.034469719148021</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>92.28183348415018</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>92.20677208178614</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.832594865251193</v>
+        <v>6.574687290562005</v>
       </c>
       <c r="D4">
-        <v>2.14202152743705</v>
+        <v>2.652947802852251</v>
       </c>
       <c r="E4">
-        <v>57.84007761098269</v>
+        <v>57.85763079867917</v>
       </c>
       <c r="F4">
-        <v>19.82282657514585</v>
+        <v>17.96251739431115</v>
       </c>
       <c r="G4">
-        <v>28.14096076271866</v>
+        <v>24.50170684796373</v>
       </c>
       <c r="H4">
-        <v>6.580419085946748</v>
+        <v>6.386118768277156</v>
       </c>
       <c r="I4">
-        <v>5.792618362844276</v>
+        <v>5.306818192245439</v>
       </c>
       <c r="J4">
-        <v>8.191388135809147</v>
+        <v>8.471406612922539</v>
       </c>
       <c r="K4">
-        <v>15.12825789734872</v>
+        <v>13.5637773256803</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.46596140166197</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.184086247826009</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>87.56891366346987</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>87.51091721558161</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.681917117005066</v>
+        <v>6.421373412701846</v>
       </c>
       <c r="D5">
-        <v>2.168684345948632</v>
+        <v>2.654253384198536</v>
       </c>
       <c r="E5">
-        <v>56.69758972935627</v>
+        <v>56.71359110692789</v>
       </c>
       <c r="F5">
-        <v>19.40693616952517</v>
+        <v>17.6530309377233</v>
       </c>
       <c r="G5">
-        <v>27.37812414311175</v>
+        <v>23.85186706921463</v>
       </c>
       <c r="H5">
-        <v>6.309360457872801</v>
+        <v>6.125415068112875</v>
       </c>
       <c r="I5">
-        <v>5.666558790761465</v>
+        <v>5.2059669257368</v>
       </c>
       <c r="J5">
-        <v>8.117168087594742</v>
+        <v>8.436568153762346</v>
       </c>
       <c r="K5">
-        <v>14.88556876556774</v>
+        <v>13.41833706264517</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.42959909247303</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.818019132433446</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>85.61004508823167</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>85.55830338816381</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.649175617054014</v>
+        <v>6.391941928616061</v>
       </c>
       <c r="D6">
-        <v>2.176776814568155</v>
+        <v>2.658151205474025</v>
       </c>
       <c r="E6">
-        <v>56.50538766145809</v>
+        <v>56.52116058776231</v>
       </c>
       <c r="F6">
-        <v>19.31376732546021</v>
+        <v>17.58014680404217</v>
       </c>
       <c r="G6">
-        <v>27.2123933135978</v>
+        <v>23.70504097244811</v>
       </c>
       <c r="H6">
-        <v>6.264114027955292</v>
+        <v>6.081954969901275</v>
       </c>
       <c r="I6">
-        <v>5.644549138229016</v>
+        <v>5.188591871578892</v>
       </c>
       <c r="J6">
-        <v>8.096087457830714</v>
+        <v>8.423668607763894</v>
       </c>
       <c r="K6">
-        <v>14.82211123994654</v>
+        <v>13.37422018407579</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.40935158091584</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.741055575908616</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>85.28220831178471</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>85.23149072992653</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.81027651072673</v>
+        <v>6.564481511870415</v>
       </c>
       <c r="D7">
-        <v>2.152461299446597</v>
+        <v>2.669101867679883</v>
       </c>
       <c r="E7">
-        <v>57.824898796889</v>
+        <v>57.84255674067095</v>
       </c>
       <c r="F7">
-        <v>19.75148214889611</v>
+        <v>17.86410710983784</v>
       </c>
       <c r="G7">
-        <v>28.01505113152622</v>
+        <v>24.46949188891336</v>
       </c>
       <c r="H7">
-        <v>6.575599691171432</v>
+        <v>6.381130215934282</v>
       </c>
       <c r="I7">
-        <v>5.787952746602071</v>
+        <v>5.302679494241812</v>
       </c>
       <c r="J7">
-        <v>8.165443748424318</v>
+        <v>8.383758402763089</v>
       </c>
       <c r="K7">
-        <v>15.06141036603986</v>
+        <v>13.48351170601842</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.41100702727598</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.119771154205905</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>87.5423110012144</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>87.48431549437016</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.52815891333769</v>
+        <v>7.327364325178405</v>
       </c>
       <c r="D8">
-        <v>2.244137020370799</v>
+        <v>2.693893409567753</v>
       </c>
       <c r="E8">
-        <v>63.28502644503659</v>
+        <v>63.31243495390852</v>
       </c>
       <c r="F8">
-        <v>21.88258621828214</v>
+        <v>19.32254632605285</v>
       </c>
       <c r="G8">
-        <v>31.80978270499459</v>
+        <v>27.8034302977509</v>
       </c>
       <c r="H8">
-        <v>7.987697828914787</v>
+        <v>7.737504366169891</v>
       </c>
       <c r="I8">
-        <v>6.418996821762136</v>
+        <v>5.805131765545229</v>
       </c>
       <c r="J8">
-        <v>8.557740579440669</v>
+        <v>8.400210706595924</v>
       </c>
       <c r="K8">
-        <v>16.23824848216595</v>
+        <v>14.12227120374136</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.49805455364082</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.81799245100019</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>97.19523340280462</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>97.09834777706558</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.955943654915622</v>
+        <v>8.858458594712408</v>
       </c>
       <c r="D9">
-        <v>2.601341235727438</v>
+        <v>2.963585207537498</v>
       </c>
       <c r="E9">
-        <v>72.7171066814989</v>
+        <v>72.77578646060908</v>
       </c>
       <c r="F9">
-        <v>26.93978296191868</v>
+        <v>23.16788388340905</v>
       </c>
       <c r="G9">
-        <v>39.64899888169274</v>
+        <v>34.48250712310069</v>
       </c>
       <c r="H9">
-        <v>11.02274427614102</v>
+        <v>10.64610355928301</v>
       </c>
       <c r="I9">
-        <v>7.674945668403761</v>
+        <v>6.801115929224237</v>
       </c>
       <c r="J9">
-        <v>9.793061777396565</v>
+        <v>8.861775637488481</v>
       </c>
       <c r="K9">
-        <v>19.23161596869931</v>
+        <v>15.78880681960829</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.84197450256726</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.12551206670784</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>115.4528463445964</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>115.2318354622367</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.09010952148827</v>
+        <v>10.10871369374828</v>
       </c>
       <c r="D10">
-        <v>2.938516642048687</v>
+        <v>3.31028675185445</v>
       </c>
       <c r="E10">
-        <v>79.83503492034289</v>
+        <v>79.92758382436112</v>
       </c>
       <c r="F10">
-        <v>30.62400651918175</v>
+        <v>25.96145484358894</v>
       </c>
       <c r="G10">
-        <v>45.41924865964528</v>
+        <v>39.77451141829184</v>
       </c>
       <c r="H10">
-        <v>13.6569865591208</v>
+        <v>13.15237321565414</v>
       </c>
       <c r="I10">
-        <v>8.663321748088624</v>
+        <v>7.573397263511664</v>
       </c>
       <c r="J10">
-        <v>11.197334351135</v>
+        <v>8.862656911145532</v>
       </c>
       <c r="K10">
-        <v>21.80188815658569</v>
+        <v>17.32296263077706</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.96672315584622</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.39065350526197</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>129.2724196971656</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>128.8755743704709</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.05169309360842</v>
+        <v>11.16380170893094</v>
       </c>
       <c r="D11">
-        <v>3.593442426395304</v>
+        <v>4.004869894911879</v>
       </c>
       <c r="E11">
-        <v>91.09325984574407</v>
+        <v>91.1076393526921</v>
       </c>
       <c r="F11">
-        <v>30.82744986831277</v>
+        <v>25.66993801826289</v>
       </c>
       <c r="G11">
-        <v>45.61174636620612</v>
+        <v>40.74784766134245</v>
       </c>
       <c r="H11">
-        <v>15.47780617166993</v>
+        <v>14.87760818401511</v>
       </c>
       <c r="I11">
-        <v>9.293475965629508</v>
+        <v>8.062443050614885</v>
       </c>
       <c r="J11">
-        <v>11.20287736736353</v>
+        <v>7.439289978435966</v>
       </c>
       <c r="K11">
-        <v>21.77052449527575</v>
+        <v>16.92075477568078</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.93906266847075</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.80547724105081</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>136.33317415837</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>135.7743557683877</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.69746856103344</v>
+        <v>11.86406465372371</v>
       </c>
       <c r="D12">
-        <v>4.091858652017975</v>
+        <v>4.499282305318189</v>
       </c>
       <c r="E12">
-        <v>99.42862887200781</v>
+        <v>99.35219242626557</v>
       </c>
       <c r="F12">
-        <v>30.43852988139791</v>
+        <v>25.11483064062526</v>
       </c>
       <c r="G12">
-        <v>44.97354778292127</v>
+        <v>40.62394304355418</v>
       </c>
       <c r="H12">
-        <v>16.70775554125358</v>
+        <v>16.05380868841496</v>
       </c>
       <c r="I12">
-        <v>9.654768965219123</v>
+        <v>8.343416612213582</v>
       </c>
       <c r="J12">
-        <v>11.01277193684136</v>
+        <v>6.469360877912213</v>
       </c>
       <c r="K12">
-        <v>21.37489246834188</v>
+        <v>16.42137762724636</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.1271428959342</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.86807130862661</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>139.448636723095</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>138.7808039461486</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.08816260007831</v>
+        <v>12.28621854895192</v>
       </c>
       <c r="D13">
-        <v>4.520031986217787</v>
+        <v>4.88335063323484</v>
       </c>
       <c r="E13">
-        <v>106.1997143613648</v>
+        <v>106.0243803573109</v>
       </c>
       <c r="F13">
-        <v>29.29611789946329</v>
+        <v>24.13424072342004</v>
       </c>
       <c r="G13">
-        <v>43.18422627542409</v>
+        <v>39.15003167026575</v>
       </c>
       <c r="H13">
-        <v>17.39897604118409</v>
+        <v>16.73828040574188</v>
       </c>
       <c r="I13">
-        <v>9.795939304951553</v>
+        <v>8.458664445830392</v>
       </c>
       <c r="J13">
-        <v>10.53953919761763</v>
+        <v>5.945766997858486</v>
       </c>
       <c r="K13">
-        <v>20.45964295834011</v>
+        <v>15.67123273732311</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.37145094591057</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.55496020389849</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>139.2915878003496</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>138.598616081067</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.24261474286333</v>
+        <v>12.45534634237976</v>
       </c>
       <c r="D14">
-        <v>4.798290530310945</v>
+        <v>5.11126620168411</v>
       </c>
       <c r="E14">
-        <v>110.3056834982678</v>
+        <v>110.0629374405933</v>
       </c>
       <c r="F14">
-        <v>28.10374756655181</v>
+        <v>23.2020819795193</v>
       </c>
       <c r="G14">
-        <v>41.33222527825778</v>
+        <v>37.46325710683421</v>
       </c>
       <c r="H14">
-        <v>17.6530054010227</v>
+        <v>17.01162254700407</v>
       </c>
       <c r="I14">
-        <v>9.79205636757569</v>
+        <v>8.462401236620403</v>
       </c>
       <c r="J14">
-        <v>10.05896789012098</v>
+        <v>5.736786584344365</v>
       </c>
       <c r="K14">
-        <v>19.5435401918889</v>
+        <v>14.99249697329507</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.8465740896763</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.14410355434075</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>137.6549647381187</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>136.9889291618601</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.21011657046508</v>
+        <v>12.42230447240493</v>
       </c>
       <c r="D15">
-        <v>4.852765281453178</v>
+        <v>5.147227219618281</v>
       </c>
       <c r="E15">
-        <v>110.9356693516313</v>
+        <v>110.6802284209179</v>
       </c>
       <c r="F15">
-        <v>27.59295200190405</v>
+        <v>22.82601266881072</v>
       </c>
       <c r="G15">
-        <v>40.52768865311786</v>
+        <v>36.68525683663223</v>
       </c>
       <c r="H15">
-        <v>17.56704055404365</v>
+        <v>16.94178138429725</v>
       </c>
       <c r="I15">
-        <v>9.735925228041379</v>
+        <v>8.421928871879022</v>
       </c>
       <c r="J15">
-        <v>9.854145759585659</v>
+        <v>5.709450231798508</v>
       </c>
       <c r="K15">
-        <v>19.16274483784682</v>
+        <v>14.72925087076626</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.71501360770877</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.92947509928831</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>136.5361277409675</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>135.8976127823944</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.57187014635594</v>
+        <v>11.71592845194241</v>
       </c>
       <c r="D16">
-        <v>4.661360442514844</v>
+        <v>4.910000144440553</v>
       </c>
       <c r="E16">
-        <v>106.9567780822815</v>
+        <v>106.7375895045293</v>
       </c>
       <c r="F16">
-        <v>25.68612669754238</v>
+        <v>21.54919207429287</v>
       </c>
       <c r="G16">
-        <v>37.42569215353686</v>
+        <v>33.43802626072994</v>
       </c>
       <c r="H16">
-        <v>16.07172823642277</v>
+        <v>15.54182398681909</v>
       </c>
       <c r="I16">
-        <v>9.213191052622484</v>
+        <v>8.024912859561823</v>
       </c>
       <c r="J16">
-        <v>9.09073839143571</v>
+        <v>6.213049392822173</v>
       </c>
       <c r="K16">
-        <v>17.84767065493194</v>
+        <v>13.94210891605798</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.81798874690949</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.89497031096695</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>129.9075516009875</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>129.4349905684196</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.01593415360677</v>
+        <v>11.1026999603042</v>
       </c>
       <c r="D17">
-        <v>4.35855350570075</v>
+        <v>4.607197607046675</v>
       </c>
       <c r="E17">
-        <v>101.6150290756326</v>
+        <v>101.4483900490539</v>
       </c>
       <c r="F17">
-        <v>24.99097061580709</v>
+        <v>21.15252747968238</v>
       </c>
       <c r="G17">
-        <v>36.25625830535276</v>
+        <v>32.07511634550581</v>
       </c>
       <c r="H17">
-        <v>14.82819702250047</v>
+        <v>14.34879526564127</v>
       </c>
       <c r="I17">
-        <v>8.833059847398504</v>
+        <v>7.730169654728399</v>
       </c>
       <c r="J17">
-        <v>8.820388148119054</v>
+        <v>6.728987657710597</v>
       </c>
       <c r="K17">
-        <v>17.41771557765265</v>
+        <v>13.75429069746241</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.18095220989779</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.35364936988061</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>125.920279052225</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>125.5325546071998</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.48771570562679</v>
+        <v>10.51457860267795</v>
       </c>
       <c r="D18">
-        <v>3.921225790025683</v>
+        <v>4.197677574895903</v>
       </c>
       <c r="E18">
-        <v>94.61048546589711</v>
+        <v>94.51038788759377</v>
       </c>
       <c r="F18">
-        <v>25.33818594979773</v>
+        <v>21.58471923292081</v>
       </c>
       <c r="G18">
-        <v>36.78595793577053</v>
+        <v>32.25687183883998</v>
       </c>
       <c r="H18">
-        <v>13.67941735812287</v>
+        <v>13.22674068246244</v>
       </c>
       <c r="I18">
-        <v>8.535373865728195</v>
+        <v>7.494261207541856</v>
       </c>
       <c r="J18">
-        <v>8.984793139788612</v>
+        <v>7.378281746104538</v>
       </c>
       <c r="K18">
-        <v>17.76989793306499</v>
+        <v>14.15551422522269</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.8481835322722</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.25165110690824</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>123.5558893114721</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>123.2186977905814</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.01274312035264</v>
+        <v>10.00615261259937</v>
       </c>
       <c r="D19">
-        <v>3.444873316100468</v>
+        <v>3.758093361063233</v>
       </c>
       <c r="E19">
-        <v>86.9728214295631</v>
+        <v>86.94441806263259</v>
       </c>
       <c r="F19">
-        <v>26.44353611423601</v>
+        <v>22.61498085414283</v>
       </c>
       <c r="G19">
-        <v>38.59531987360313</v>
+        <v>33.616329720481</v>
       </c>
       <c r="H19">
-        <v>12.84178204686768</v>
+        <v>12.39970038470743</v>
       </c>
       <c r="I19">
-        <v>8.333831590489648</v>
+        <v>7.331871434829025</v>
       </c>
       <c r="J19">
-        <v>9.469605891754362</v>
+        <v>8.091479078510904</v>
       </c>
       <c r="K19">
-        <v>18.65656749112816</v>
+        <v>14.94572763197879</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.6480714051902</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.51085508555193</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>122.618254885328</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>122.307172336149</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.741519644337986</v>
+        <v>9.752501642969049</v>
       </c>
       <c r="D20">
-        <v>2.876897820529763</v>
+        <v>3.233578196310123</v>
       </c>
       <c r="E20">
-        <v>78.06431928630381</v>
+        <v>78.14511516114612</v>
       </c>
       <c r="F20">
-        <v>29.46200526455426</v>
+        <v>25.147234493098</v>
       </c>
       <c r="G20">
-        <v>43.56664008257699</v>
+        <v>37.88908993272708</v>
       </c>
       <c r="H20">
-        <v>12.91569330944413</v>
+        <v>12.45147639417415</v>
       </c>
       <c r="I20">
-        <v>8.388358935045744</v>
+        <v>7.364282975902078</v>
       </c>
       <c r="J20">
-        <v>10.74224649704329</v>
+        <v>9.017760200121716</v>
       </c>
       <c r="K20">
-        <v>20.94162309100185</v>
+        <v>16.76063968691002</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.86667285584049</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.73287017281116</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>125.54391568213</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>125.2065707383219</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.60186100923773</v>
+        <v>10.72288829502781</v>
       </c>
       <c r="D21">
-        <v>3.057634509299523</v>
+        <v>3.505911628145809</v>
       </c>
       <c r="E21">
-        <v>81.84064896736355</v>
+        <v>81.98134889166056</v>
       </c>
       <c r="F21">
-        <v>32.79826255076702</v>
+        <v>27.26659109778957</v>
       </c>
       <c r="G21">
-        <v>48.87940221001675</v>
+        <v>43.69386803511808</v>
       </c>
       <c r="H21">
-        <v>15.16157235201842</v>
+        <v>14.56724293822585</v>
       </c>
       <c r="I21">
-        <v>9.169746047023438</v>
+        <v>7.954675941736482</v>
       </c>
       <c r="J21">
-        <v>12.04930307757019</v>
+        <v>8.040855605696414</v>
       </c>
       <c r="K21">
-        <v>23.30134625485323</v>
+        <v>18.10215395381821</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.95807344828418</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.43183143281426</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>136.7335322756472</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>136.1853965641536</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.25937849221423</v>
+        <v>11.45022538052518</v>
       </c>
       <c r="D22">
-        <v>3.214430850864654</v>
+        <v>3.699241455024937</v>
       </c>
       <c r="E22">
-        <v>84.66958327627415</v>
+        <v>84.86323913560034</v>
       </c>
       <c r="F22">
-        <v>35.11731192032453</v>
+        <v>28.7493734178523</v>
       </c>
       <c r="G22">
-        <v>52.60156353300416</v>
+        <v>47.69668282110319</v>
       </c>
       <c r="H22">
-        <v>16.92621877322958</v>
+        <v>16.21116227805345</v>
       </c>
       <c r="I22">
-        <v>9.740401119813097</v>
+        <v>8.381870428654613</v>
       </c>
       <c r="J22">
-        <v>12.9663665084271</v>
+        <v>7.354118410433627</v>
       </c>
       <c r="K22">
-        <v>24.94822549612464</v>
+        <v>19.05091871980963</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.03762230249752</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.61113215784902</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>144.9086380618118</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>144.1157368781173</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.91602343368469</v>
+        <v>11.05659204838242</v>
       </c>
       <c r="D23">
-        <v>3.119914492930969</v>
+        <v>3.571372483348711</v>
       </c>
       <c r="E23">
-        <v>83.16996472600081</v>
+        <v>83.33249040469798</v>
       </c>
       <c r="F23">
-        <v>33.90887332236122</v>
+        <v>28.04849867446622</v>
       </c>
       <c r="G23">
-        <v>50.66369466802861</v>
+        <v>45.47447726780909</v>
       </c>
       <c r="H23">
-        <v>15.94854942342211</v>
+        <v>15.30374541560293</v>
       </c>
       <c r="I23">
-        <v>9.43250965033539</v>
+        <v>8.152875371362914</v>
       </c>
       <c r="J23">
-        <v>12.48934931559169</v>
+        <v>7.901571596831738</v>
       </c>
       <c r="K23">
-        <v>24.10768287050402</v>
+        <v>18.62680227806607</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.05984907110984</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.03376368769059</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>140.426937308822</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>139.7815299726859</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.718006473987877</v>
+        <v>9.711498839731684</v>
       </c>
       <c r="D24">
-        <v>2.81520670905189</v>
+        <v>3.16860575540146</v>
       </c>
       <c r="E24">
-        <v>77.24796890149378</v>
+        <v>77.33573591590522</v>
       </c>
       <c r="F24">
-        <v>29.65977152249585</v>
+        <v>25.33325734719466</v>
       </c>
       <c r="G24">
-        <v>43.90892116038893</v>
+        <v>38.16406562117447</v>
       </c>
       <c r="H24">
-        <v>12.86726000698489</v>
+        <v>12.40526360154211</v>
       </c>
       <c r="I24">
-        <v>8.369711711991821</v>
+        <v>7.347832192842674</v>
       </c>
       <c r="J24">
-        <v>10.83121962500079</v>
+        <v>9.131233046334291</v>
       </c>
       <c r="K24">
-        <v>21.12137134771195</v>
+        <v>16.92565133493429</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.00998984574956</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.81575443365269</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>125.3542698003284</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>125.0200920947127</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.537446155431681</v>
+        <v>8.422677824521351</v>
       </c>
       <c r="D25">
-        <v>2.521027967794191</v>
+        <v>2.876449578341551</v>
       </c>
       <c r="E25">
-        <v>70.29944909027499</v>
+        <v>70.34736279648061</v>
       </c>
       <c r="F25">
-        <v>25.45588181570172</v>
+        <v>22.00770616073694</v>
       </c>
       <c r="G25">
-        <v>37.31832150677172</v>
+        <v>32.3902209905504</v>
       </c>
       <c r="H25">
-        <v>10.15424498217774</v>
+        <v>9.816348380399553</v>
       </c>
       <c r="I25">
-        <v>7.325110777649687</v>
+        <v>6.526996243822476</v>
       </c>
       <c r="J25">
-        <v>9.270748087708704</v>
+        <v>8.776187969426593</v>
       </c>
       <c r="K25">
-        <v>18.15040609447869</v>
+        <v>15.2467361306204</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.69901745295187</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.19974483924234</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>110.5233029042352</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>110.3450640186135</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
